--- a/任务文件.xlsx
+++ b/任务文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hello\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA832C6-9964-4F98-917F-3CA212A5B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B511B8D3-035C-48A9-A377-3DBEAAF6D83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{362B546C-DAD3-4980-9EB0-864ECE164B2A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载抖音</t>
+    <t>打开抖音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
